--- a/Python RPA/Buscador CEP/CEP.xlsx
+++ b/Python RPA/Buscador CEP/CEP.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,222 +488,6 @@
       <c r="E1" s="3" t="inlineStr">
         <is>
           <t>UF</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05892-387</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rua A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Jardim Amália</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08431-620</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rua Abaeté</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Parque Guaianazes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23548-057</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Travessa 12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sepetiba</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04364-010</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rua Abatira</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Vila Santa Catarina</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>89233-144</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rua Adael Gomes de Oliveira</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Santa Catarina</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Joinville</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04929-340</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rua Soares de Sousa Júnior</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Alto da Riviera</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05469-005</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Praça Paschoal Geraldo da Silveira Isoldi</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Alto de Pinheiros</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>83324-287</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rua Maria José Soares</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Emiliano Perneta</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Pinhais</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PR</t>
         </is>
       </c>
     </row>
